--- a/FinalExamScheduling/FinalExamScheduling/Input.xlsx
+++ b/FinalExamScheduling/FinalExamScheduling/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BME\8.félév\Kutatás\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BME\8.félév\Kutatás\Schedule\FinalExamScheduling\FinalExamScheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7662F3-5A82-4BB7-BD88-C8916AAC7F04}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997A3C81-EA20-4FA2-BE5E-E8C9CFA16122}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{50175455-BC8E-4A3E-9C2C-228FA398DDE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{50175455-BC8E-4A3E-9C2C-228FA398DDE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4775" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4790" uniqueCount="300">
   <si>
     <t>2018.01.04. (csütörtök)</t>
   </si>
@@ -1338,16 +1338,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="25" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="descriptionStyle" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3431,7 +3431,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,138 +3445,138 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="31" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="31" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="31" t="s">
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="31" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="31" t="s">
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="31" t="s">
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
-      <c r="BQ1" s="32"/>
-      <c r="BR1" s="32"/>
-      <c r="BS1" s="32"/>
-      <c r="BT1" s="32"/>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BW1" s="31" t="s">
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="34"/>
+      <c r="BW1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="BX1" s="32"/>
-      <c r="BY1" s="32"/>
-      <c r="BZ1" s="32"/>
-      <c r="CA1" s="32"/>
-      <c r="CB1" s="32"/>
-      <c r="CC1" s="32"/>
-      <c r="CD1" s="32"/>
-      <c r="CE1" s="32"/>
-      <c r="CF1" s="32"/>
-      <c r="CG1" s="31" t="s">
+      <c r="BX1" s="34"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="34"/>
+      <c r="CC1" s="34"/>
+      <c r="CD1" s="34"/>
+      <c r="CE1" s="34"/>
+      <c r="CF1" s="34"/>
+      <c r="CG1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="CH1" s="32"/>
-      <c r="CI1" s="32"/>
-      <c r="CJ1" s="32"/>
-      <c r="CK1" s="32"/>
-      <c r="CL1" s="32"/>
-      <c r="CM1" s="32"/>
-      <c r="CN1" s="32"/>
-      <c r="CO1" s="32"/>
-      <c r="CP1" s="32"/>
-      <c r="CQ1" s="31" t="s">
+      <c r="CH1" s="34"/>
+      <c r="CI1" s="34"/>
+      <c r="CJ1" s="34"/>
+      <c r="CK1" s="34"/>
+      <c r="CL1" s="34"/>
+      <c r="CM1" s="34"/>
+      <c r="CN1" s="34"/>
+      <c r="CO1" s="34"/>
+      <c r="CP1" s="34"/>
+      <c r="CQ1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="CR1" s="32"/>
-      <c r="CS1" s="32"/>
-      <c r="CT1" s="32"/>
-      <c r="CU1" s="32"/>
-      <c r="CV1" s="32"/>
-      <c r="CW1" s="32"/>
-      <c r="CX1" s="32"/>
-      <c r="CY1" s="32"/>
-      <c r="CZ1" s="32"/>
-      <c r="DA1" s="31" t="s">
+      <c r="CR1" s="34"/>
+      <c r="CS1" s="34"/>
+      <c r="CT1" s="34"/>
+      <c r="CU1" s="34"/>
+      <c r="CV1" s="34"/>
+      <c r="CW1" s="34"/>
+      <c r="CX1" s="34"/>
+      <c r="CY1" s="34"/>
+      <c r="CZ1" s="34"/>
+      <c r="DA1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="DB1" s="32"/>
-      <c r="DC1" s="32"/>
-      <c r="DD1" s="32"/>
-      <c r="DE1" s="32"/>
-      <c r="DF1" s="32"/>
-      <c r="DG1" s="32"/>
-      <c r="DH1" s="32"/>
-      <c r="DI1" s="32"/>
-      <c r="DJ1" s="32"/>
+      <c r="DB1" s="34"/>
+      <c r="DC1" s="34"/>
+      <c r="DD1" s="34"/>
+      <c r="DE1" s="34"/>
+      <c r="DF1" s="34"/>
+      <c r="DG1" s="34"/>
+      <c r="DH1" s="34"/>
+      <c r="DI1" s="34"/>
+      <c r="DJ1" s="34"/>
     </row>
     <row r="2" spans="1:114" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -13523,23 +13523,53 @@
       <c r="D38" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="16"/>
+      <c r="E38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="M38" s="16"/>
       <c r="N38" s="17"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
+      <c r="O38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="V38" s="16"/>
       <c r="W38" s="16"/>
       <c r="X38" s="17"/>
@@ -17759,41 +17789,41 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:12" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="31" t="s">
         <v>142</v>
       </c>
     </row>
@@ -17873,7 +17903,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState columnSort="1" ref="A1:AK10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A1:AK10">
     <sortCondition ref="A2:AK2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
